--- a/listas_apolo/listas dobles/Informatica industrial 302 y 309.xlsx
+++ b/listas_apolo/listas dobles/Informatica industrial 302 y 309.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="14">
   <si>
     <t>Año</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Nº Expediente en Centro</t>
-  </si>
-  <si>
-    <t>Nº Expediente en Ágora</t>
   </si>
   <si>
     <t>2020-21</t>
@@ -387,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -550,17 +547,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -606,7 +592,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -615,7 +601,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -977,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,10 +977,9 @@
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,2637 +1001,2331 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>565000166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2">
         <v>51690</v>
       </c>
-      <c r="H2" s="2">
-        <v>321181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>565000166</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2">
         <v>54461</v>
       </c>
-      <c r="H3" s="2">
-        <v>321939</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>565000166</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2">
         <v>54477</v>
       </c>
-      <c r="H4" s="2">
-        <v>322023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>565000166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2">
         <v>52674</v>
       </c>
-      <c r="H5" s="2">
-        <v>321453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>565000166</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2">
         <v>54483</v>
       </c>
-      <c r="H6" s="2">
-        <v>321977</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>565000166</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2">
         <v>55557</v>
       </c>
-      <c r="H7" s="2">
-        <v>322206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>565000166</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2">
         <v>52231</v>
       </c>
-      <c r="H8" s="2">
-        <v>321329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>565000166</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2">
         <v>53335</v>
       </c>
-      <c r="H9" s="2">
-        <v>321566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>565000166</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2">
         <v>54492</v>
       </c>
-      <c r="H10" s="2">
-        <v>321990</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>565000166</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2">
         <v>54410</v>
       </c>
-      <c r="H11" s="2">
-        <v>321857</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
         <v>565000166</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2">
         <v>53831</v>
       </c>
-      <c r="H12" s="2">
-        <v>321808</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2">
         <v>565000166</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2">
         <v>54499</v>
       </c>
-      <c r="H13" s="2">
-        <v>321924</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
         <v>565000166</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2">
         <v>54502</v>
       </c>
-      <c r="H14" s="2">
-        <v>321875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
         <v>565000166</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2">
         <v>54507</v>
       </c>
-      <c r="H15" s="2">
-        <v>322009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
         <v>565000166</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2">
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2">
         <v>53843</v>
       </c>
-      <c r="H16" s="2">
-        <v>321810</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
         <v>565000166</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2">
         <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2">
         <v>51695</v>
       </c>
-      <c r="H17" s="2">
-        <v>321125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
         <v>565000166</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2">
         <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2">
         <v>53341</v>
       </c>
-      <c r="H18" s="2">
-        <v>321495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2">
         <v>565000166</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2">
         <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2">
         <v>54516</v>
       </c>
-      <c r="H19" s="2">
-        <v>322033</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2">
         <v>565000166</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2">
         <v>19</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2">
         <v>53346</v>
       </c>
-      <c r="H20" s="2">
-        <v>321646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2">
         <v>565000166</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2">
         <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2">
         <v>53862</v>
       </c>
-      <c r="H21" s="2">
-        <v>321763</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
         <v>565000166</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2">
         <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2">
         <v>54396</v>
       </c>
-      <c r="H22" s="2">
-        <v>321856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2">
         <v>565000166</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2">
         <v>22</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2">
         <v>53864</v>
       </c>
-      <c r="H23" s="2">
-        <v>321789</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2">
         <v>565000166</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="2">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2">
         <v>53865</v>
       </c>
-      <c r="H24" s="2">
-        <v>321799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2">
         <v>565000166</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2">
         <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2">
         <v>55787</v>
       </c>
-      <c r="H25" s="2">
-        <v>321675</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2">
         <v>565000166</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="2">
         <v>25</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2">
         <v>53349</v>
       </c>
-      <c r="H26" s="2">
-        <v>321559</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2">
         <v>565000166</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2">
         <v>26</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2">
         <v>53910</v>
       </c>
-      <c r="H27" s="2">
-        <v>321756</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="2">
         <v>565000166</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2">
         <v>27</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2">
         <v>54556</v>
       </c>
-      <c r="H28" s="2">
-        <v>321938</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2">
         <v>565000166</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2">
         <v>28</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2">
         <v>52157</v>
       </c>
-      <c r="H29" s="2">
-        <v>321273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2">
         <v>565000166</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2">
         <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2">
         <v>53928</v>
       </c>
-      <c r="H30" s="2">
-        <v>321771</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="2">
         <v>565000166</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2">
         <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2">
         <v>52312</v>
       </c>
-      <c r="H31" s="2">
-        <v>321313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2">
         <v>565000166</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2">
         <v>31</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2">
         <v>53934</v>
       </c>
-      <c r="H32" s="2">
-        <v>321774</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="2">
         <v>565000166</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2">
         <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2">
         <v>54578</v>
       </c>
-      <c r="H33" s="2">
-        <v>321884</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2">
         <v>565000166</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2">
         <v>33</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2">
         <v>52692</v>
       </c>
-      <c r="H34" s="2">
-        <v>321455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="2">
         <v>565000166</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2">
         <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2">
         <v>54595</v>
       </c>
-      <c r="H35" s="2">
-        <v>321896</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2">
         <v>565000166</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2">
         <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2">
         <v>54762</v>
       </c>
-      <c r="H36" s="2">
-        <v>321913</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2">
         <v>565000166</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2">
         <v>36</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2">
         <v>53948</v>
       </c>
-      <c r="H37" s="2">
-        <v>321800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2">
         <v>565000166</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2">
         <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2">
         <v>54610</v>
       </c>
-      <c r="H38" s="2">
-        <v>321986</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="2">
         <v>565000166</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2">
         <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2">
         <v>54615</v>
       </c>
-      <c r="H39" s="2">
-        <v>321989</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="2">
         <v>565000166</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2">
         <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2">
         <v>54620</v>
       </c>
-      <c r="H40" s="2">
-        <v>322029</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="2">
         <v>565000166</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2">
         <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2">
         <v>53967</v>
       </c>
-      <c r="H41" s="2">
-        <v>321731</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="2">
         <v>565000166</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2">
         <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2">
         <v>54637</v>
       </c>
-      <c r="H42" s="2">
-        <v>321937</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="2">
         <v>565000166</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2">
         <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2">
         <v>54639</v>
       </c>
-      <c r="H43" s="2">
-        <v>322011</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" s="2">
         <v>565000166</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="2">
         <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2">
         <v>55563</v>
       </c>
-      <c r="H44" s="2">
-        <v>322199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" s="2">
         <v>565000166</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2">
         <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2">
         <v>53989</v>
       </c>
-      <c r="H45" s="2">
-        <v>321719</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" s="2">
         <v>565000166</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2">
         <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2">
         <v>52388</v>
       </c>
-      <c r="H46" s="2">
-        <v>321297</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" s="2">
         <v>565000166</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="2">
         <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2">
         <v>53992</v>
       </c>
-      <c r="H47" s="2">
-        <v>321704</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" s="2">
         <v>565000166</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="2">
         <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2">
         <v>54647</v>
       </c>
-      <c r="H48" s="2">
-        <v>321940</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="2">
         <v>565000166</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="2">
         <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2">
         <v>54656</v>
       </c>
-      <c r="H49" s="2">
-        <v>322015</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" s="2">
         <v>565000166</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2">
         <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2">
         <v>54001</v>
       </c>
-      <c r="H50" s="2">
-        <v>321732</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="2">
         <v>565000166</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="2">
         <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2">
         <v>54666</v>
       </c>
-      <c r="H51" s="2">
-        <v>321927</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" s="2">
         <v>565000166</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="2">
         <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2">
         <v>53379</v>
       </c>
-      <c r="H52" s="2">
-        <v>321571</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" s="2">
         <v>565000166</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="2">
         <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2">
         <v>54673</v>
       </c>
-      <c r="H53" s="2">
-        <v>321914</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" s="2">
         <v>565000166</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2">
         <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2">
         <v>54019</v>
       </c>
-      <c r="H54" s="2">
-        <v>321673</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" s="2">
         <v>565000166</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="2">
         <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2">
         <v>54029</v>
       </c>
-      <c r="H55" s="2">
-        <v>321717</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" s="2">
         <v>565000166</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="2">
         <v>55</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2">
         <v>48696</v>
       </c>
-      <c r="H56" s="2">
-        <v>321652</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" s="2">
         <v>565000166</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="2">
         <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2">
         <v>54698</v>
       </c>
-      <c r="H57" s="2">
-        <v>321944</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" s="2">
         <v>565000166</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="2">
         <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2">
         <v>54275</v>
       </c>
-      <c r="H58" s="2">
-        <v>321837</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" s="2">
         <v>565000166</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="2">
         <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2">
         <v>54703</v>
       </c>
-      <c r="H59" s="2">
-        <v>322005</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" s="2">
         <v>565000166</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2">
         <v>59</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2">
         <v>54713</v>
       </c>
-      <c r="H60" s="2">
-        <v>321893</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61" s="2">
         <v>565000166</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2">
         <v>60</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2">
         <v>53395</v>
       </c>
-      <c r="H61" s="2">
-        <v>321596</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62" s="2">
         <v>565000166</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="2">
         <v>61</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2">
         <v>54067</v>
       </c>
-      <c r="H62" s="2">
-        <v>321820</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" s="2">
         <v>565000166</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="2">
         <v>62</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2">
         <v>54728</v>
       </c>
-      <c r="H63" s="2">
-        <v>322024</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" s="2">
         <v>565000166</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" s="2">
         <v>63</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2">
         <v>54731</v>
       </c>
-      <c r="H64" s="2">
-        <v>321945</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" s="2">
         <v>565000166</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" s="2">
         <v>64</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2">
         <v>54080</v>
       </c>
-      <c r="H65" s="2">
-        <v>321814</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" s="2">
         <v>565000166</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2">
         <v>65</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2">
         <v>54276</v>
       </c>
-      <c r="H66" s="2">
-        <v>321834</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" s="2">
         <v>565000166</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" s="2">
         <v>66</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2">
         <v>54273</v>
       </c>
-      <c r="H67" s="2">
-        <v>321836</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" s="2">
         <v>565000166</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" s="2">
         <v>67</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2">
         <v>54745</v>
       </c>
-      <c r="H68" s="2">
-        <v>321969</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" s="2">
         <v>565000166</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69" s="2">
         <v>68</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2">
         <v>54090</v>
       </c>
-      <c r="H69" s="2">
-        <v>321761</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70" s="2">
         <v>565000166</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" s="2">
         <v>69</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2">
         <v>54955</v>
       </c>
-      <c r="H70" s="2">
-        <v>322004</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" s="2">
         <v>565000166</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" s="2">
         <v>70</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2">
         <v>54752</v>
       </c>
-      <c r="H71" s="2">
-        <v>321991</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72" s="2">
         <v>565000166</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72" s="2">
         <v>71</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2">
         <v>54753</v>
       </c>
-      <c r="H72" s="2">
-        <v>321992</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" s="2">
         <v>565000166</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E73" s="2">
         <v>72</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2">
         <v>53327</v>
       </c>
-      <c r="H73" s="2">
-        <v>321611</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" s="2">
         <v>565000166</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E74" s="2">
         <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2">
         <v>54134</v>
       </c>
-      <c r="H74" s="2">
-        <v>321677</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" s="2">
         <v>565000166</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" s="2">
         <v>74</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2">
         <v>54778</v>
       </c>
-      <c r="H75" s="2">
-        <v>321957</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" s="2">
         <v>565000166</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76" s="2">
         <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2">
         <v>55347</v>
       </c>
-      <c r="H76" s="2">
-        <v>322203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" s="2">
         <v>565000166</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" s="2">
         <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2">
         <v>54142</v>
       </c>
-      <c r="H77" s="2">
-        <v>321718</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="2">
         <v>565000166</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E78" s="2">
         <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2">
         <v>54157</v>
       </c>
-      <c r="H78" s="2">
-        <v>321711</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" s="2">
         <v>565000166</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E79" s="2">
         <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2">
         <v>54793</v>
       </c>
-      <c r="H79" s="2">
-        <v>321902</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" s="2">
         <v>565000166</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80" s="2">
         <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2">
         <v>53417</v>
       </c>
-      <c r="H80" s="2">
-        <v>321640</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81" s="2">
         <v>565000166</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E81" s="2">
         <v>80</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2">
         <v>53324</v>
       </c>
-      <c r="H81" s="2">
-        <v>321526</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="2">
         <v>565000166</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E82" s="2">
         <v>81</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2">
         <v>54817</v>
       </c>
-      <c r="H82" s="2">
-        <v>321918</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" s="2">
         <v>565000166</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83" s="2">
         <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2">
         <v>53421</v>
       </c>
-      <c r="H83" s="2">
-        <v>321576</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" s="2">
         <v>565000166</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" s="2">
         <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2">
         <v>54829</v>
       </c>
-      <c r="H84" s="2">
-        <v>322027</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B85" s="2">
         <v>565000166</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85" s="2">
         <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2">
         <v>52584</v>
       </c>
-      <c r="H85" s="2">
-        <v>321391</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" s="2">
         <v>565000166</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86" s="2">
         <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2">
         <v>54186</v>
       </c>
-      <c r="H86" s="2">
-        <v>321712</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" s="2">
         <v>565000166</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87" s="2">
         <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2">
         <v>54832</v>
       </c>
-      <c r="H87" s="2">
-        <v>322014</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" s="2">
         <v>565000166</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E88" s="2">
         <v>87</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2">
         <v>54838</v>
       </c>
-      <c r="H88" s="2">
-        <v>321976</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" s="2">
         <v>565000166</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89" s="2">
         <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2">
         <v>54844</v>
       </c>
-      <c r="H89" s="2">
-        <v>321958</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" s="2">
         <v>565000166</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E90" s="2">
         <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2">
         <v>54851</v>
       </c>
-      <c r="H90" s="2">
-        <v>321972</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" s="2">
         <v>565000166</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91" s="2">
         <v>90</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2">
         <v>50731</v>
       </c>
-      <c r="H91" s="2">
-        <v>320796</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" s="2">
         <v>565000166</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E92" s="2">
         <v>91</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2">
         <v>52610</v>
       </c>
-      <c r="H92" s="2">
-        <v>321399</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93" s="2">
         <v>565000166</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93" s="2">
         <v>92</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2">
         <v>53431</v>
       </c>
-      <c r="H93" s="2">
-        <v>321485</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" s="2">
         <v>565000166</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" s="2">
         <v>93</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2">
         <v>54863</v>
       </c>
-      <c r="H94" s="2">
-        <v>322013</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" s="2">
         <v>565000166</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95" s="2">
         <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2">
         <v>54864</v>
       </c>
-      <c r="H95" s="2">
-        <v>322019</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" s="2">
         <v>565000166</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96" s="2">
         <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2">
         <v>54213</v>
       </c>
-      <c r="H96" s="2">
-        <v>321785</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B97" s="2">
         <v>565000166</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E97" s="2">
         <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2">
         <v>54348</v>
       </c>
-      <c r="H97" s="2">
-        <v>321840</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98" s="2">
         <v>565000166</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98" s="2">
         <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2">
         <v>54400</v>
       </c>
-      <c r="H98" s="2">
-        <v>321854</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B99" s="2">
         <v>565000166</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99" s="2">
         <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2">
         <v>53438</v>
       </c>
-      <c r="H99" s="2">
-        <v>321639</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100" s="2">
         <v>565000166</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E100" s="2">
         <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2">
         <v>54887</v>
       </c>
-      <c r="H100" s="2">
-        <v>321877</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B101" s="2">
         <v>565000166</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101" s="2">
         <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2">
         <v>54892</v>
       </c>
-      <c r="H101" s="2">
-        <v>321959</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102" s="2">
         <v>565000166</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E102" s="2">
         <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2">
         <v>50738</v>
       </c>
-      <c r="H102" s="2">
-        <v>320897</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -3669,2153 +3347,1903 @@
       <c r="G103" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104" s="2">
         <v>565000166</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E104" s="2">
         <v>1</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2">
         <v>53814</v>
       </c>
-      <c r="H104" s="2">
-        <v>321737</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" s="2">
         <v>565000166</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E105" s="2">
         <v>2</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2">
         <v>53816</v>
       </c>
-      <c r="H105" s="2">
-        <v>321770</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B106" s="2">
         <v>565000166</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E106" s="2">
         <v>3</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2">
         <v>50156</v>
       </c>
-      <c r="H106" s="2">
-        <v>320658</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B107" s="2">
         <v>565000166</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E107" s="2">
         <v>4</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2">
         <v>52070</v>
       </c>
-      <c r="H107" s="2">
-        <v>321244</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B108" s="2">
         <v>565000166</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E108" s="2">
         <v>5</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2">
         <v>53828</v>
       </c>
-      <c r="H108" s="2">
-        <v>321776</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109" s="2">
         <v>565000166</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E109" s="2">
         <v>6</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2">
         <v>55667</v>
       </c>
-      <c r="H109" s="2">
-        <v>322407</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B110" s="2">
         <v>565000166</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E110" s="2">
         <v>7</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2">
         <v>54939</v>
       </c>
-      <c r="H110" s="2">
-        <v>322032</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B111" s="2">
         <v>565000166</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E111" s="2">
         <v>8</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2">
         <v>52055</v>
       </c>
-      <c r="H111" s="2">
-        <v>321246</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B112" s="2">
         <v>565000166</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E112" s="2">
         <v>9</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2">
         <v>53883</v>
       </c>
-      <c r="H112" s="2">
-        <v>321817</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B113" s="2">
         <v>565000166</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E113" s="2">
         <v>10</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2">
         <v>52186</v>
       </c>
-      <c r="H113" s="2">
-        <v>321259</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B114" s="2">
         <v>565000166</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E114" s="2">
         <v>11</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2">
         <v>54288</v>
       </c>
-      <c r="H114" s="2">
-        <v>321849</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B115" s="2">
         <v>565000166</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E115" s="2">
         <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2">
         <v>51714</v>
       </c>
-      <c r="H115" s="2">
-        <v>321212</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B116" s="2">
         <v>565000166</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E116" s="2">
         <v>13</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2">
         <v>52325</v>
       </c>
-      <c r="H116" s="2">
-        <v>321337</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B117" s="2">
         <v>565000166</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E117" s="2">
         <v>14</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2">
         <v>52760</v>
       </c>
-      <c r="H117" s="2">
-        <v>321472</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B118" s="2">
         <v>565000166</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E118" s="2">
         <v>15</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2">
         <v>50289</v>
       </c>
-      <c r="H118" s="2">
-        <v>321262</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B119" s="2">
         <v>565000166</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E119" s="2">
         <v>16</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2">
         <v>53365</v>
       </c>
-      <c r="H119" s="2">
-        <v>321590</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B120" s="2">
         <v>565000166</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E120" s="2">
         <v>17</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2">
         <v>52365</v>
       </c>
-      <c r="H120" s="2">
-        <v>321347</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B121" s="2">
         <v>565000166</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E121" s="2">
         <v>18</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2">
         <v>51217</v>
       </c>
-      <c r="H121" s="2">
-        <v>321000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B122" s="2">
         <v>565000166</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E122" s="2">
         <v>19</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2">
         <v>51227</v>
       </c>
-      <c r="H122" s="2">
-        <v>320981</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B123" s="2">
         <v>565000166</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E123" s="2">
         <v>20</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2">
         <v>51732</v>
       </c>
-      <c r="H123" s="2">
-        <v>321213</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B124" s="2">
         <v>565000166</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E124" s="2">
         <v>21</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2">
         <v>52397</v>
       </c>
-      <c r="H124" s="2">
-        <v>321363</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B125" s="2">
         <v>565000166</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E125" s="2">
         <v>22</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2">
         <v>53999</v>
       </c>
-      <c r="H125" s="2">
-        <v>321819</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B126" s="2">
         <v>565000166</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E126" s="2">
         <v>23</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2">
         <v>54026</v>
       </c>
-      <c r="H126" s="2">
-        <v>321798</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B127" s="2">
         <v>565000166</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E127" s="2">
         <v>24</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2">
         <v>53386</v>
       </c>
-      <c r="H127" s="2">
-        <v>321623</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B128" s="2">
         <v>565000166</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E128" s="2">
         <v>25</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2">
         <v>52703</v>
       </c>
-      <c r="H128" s="2">
-        <v>321448</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B129" s="2">
         <v>565000166</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E129" s="2">
         <v>26</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2">
         <v>52433</v>
       </c>
-      <c r="H129" s="2">
-        <v>321287</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B130" s="2">
         <v>565000166</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E130" s="2">
         <v>27</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2">
         <v>53389</v>
       </c>
-      <c r="H130" s="2">
-        <v>321541</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B131" s="2">
         <v>565000166</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E131" s="2">
         <v>28</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2">
         <v>54950</v>
       </c>
-      <c r="H131" s="2">
-        <v>322035</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B132" s="2">
         <v>565000166</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E132" s="2">
         <v>29</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2">
         <v>52439</v>
       </c>
-      <c r="H132" s="2">
-        <v>321370</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B133" s="2">
         <v>565000166</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E133" s="2">
         <v>30</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G133" s="2">
         <v>56168</v>
       </c>
-      <c r="H133" s="2">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B134" s="2">
         <v>565000166</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E134" s="2">
         <v>31</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2">
         <v>54040</v>
       </c>
-      <c r="H134" s="2">
-        <v>321764</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B135" s="2">
         <v>565000166</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E135" s="2">
         <v>32</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2">
         <v>54042</v>
       </c>
-      <c r="H135" s="2">
-        <v>321841</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B136" s="2">
         <v>565000166</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E136" s="2">
         <v>33</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2">
         <v>54057</v>
       </c>
-      <c r="H136" s="2">
-        <v>321767</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B137" s="2">
         <v>565000166</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E137" s="2">
         <v>34</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2">
         <v>54735</v>
       </c>
-      <c r="H137" s="2">
-        <v>322001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B138" s="2">
         <v>565000166</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E138" s="2">
         <v>35</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2">
         <v>53399</v>
       </c>
-      <c r="H138" s="2">
-        <v>321563</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B139" s="2">
         <v>565000166</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E139" s="2">
         <v>36</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2">
         <v>52758</v>
       </c>
-      <c r="H139" s="2">
-        <v>321467</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B140" s="2">
         <v>565000166</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E140" s="2">
         <v>37</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2">
         <v>55575</v>
       </c>
-      <c r="H140" s="2">
-        <v>322201</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B141" s="2">
         <v>565000166</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E141" s="2">
         <v>38</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2">
         <v>53682</v>
       </c>
-      <c r="H141" s="2">
-        <v>321570</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B142" s="2">
         <v>565000166</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E142" s="2">
         <v>39</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2">
         <v>53402</v>
       </c>
-      <c r="H142" s="2">
-        <v>321540</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B143" s="2">
         <v>565000166</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E143" s="2">
         <v>40</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2">
         <v>53404</v>
       </c>
-      <c r="H143" s="2">
-        <v>321628</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B144" s="2">
         <v>565000166</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E144" s="2">
         <v>41</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2">
         <v>54086</v>
       </c>
-      <c r="H144" s="2">
-        <v>321755</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B145" s="2">
         <v>565000166</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E145" s="2">
         <v>42</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2">
         <v>53405</v>
       </c>
-      <c r="H145" s="2">
-        <v>321549</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B146" s="2">
         <v>565000166</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E146" s="2">
         <v>43</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2">
         <v>54094</v>
       </c>
-      <c r="H146" s="2">
-        <v>321822</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B147" s="2">
         <v>565000166</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E147" s="2">
         <v>44</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2">
         <v>54103</v>
       </c>
-      <c r="H147" s="2">
-        <v>321730</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B148" s="2">
         <v>565000166</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E148" s="2">
         <v>45</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2">
         <v>54117</v>
       </c>
-      <c r="H148" s="2">
-        <v>321812</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B149" s="2">
         <v>565000166</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E149" s="2">
         <v>46</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2">
         <v>53407</v>
       </c>
-      <c r="H149" s="2">
-        <v>321507</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B150" s="2">
         <v>565000166</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E150" s="2">
         <v>47</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2">
         <v>54280</v>
       </c>
-      <c r="H150" s="2">
-        <v>321838</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B151" s="2">
         <v>565000166</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E151" s="2">
         <v>48</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2">
         <v>52515</v>
       </c>
-      <c r="H151" s="2">
-        <v>321304</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B152" s="2">
         <v>565000166</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E152" s="2">
         <v>49</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2">
         <v>54128</v>
       </c>
-      <c r="H152" s="2">
-        <v>321693</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B153" s="2">
         <v>565000166</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E153" s="2">
         <v>50</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2">
         <v>54776</v>
       </c>
-      <c r="H153" s="2">
-        <v>321903</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B154" s="2">
         <v>565000166</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E154" s="2">
         <v>51</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2">
         <v>54777</v>
       </c>
-      <c r="H154" s="2">
-        <v>321994</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B155" s="2">
         <v>565000166</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E155" s="2">
         <v>52</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2">
         <v>54782</v>
       </c>
-      <c r="H155" s="2">
-        <v>321895</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B156" s="2">
         <v>565000166</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E156" s="2">
         <v>53</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2">
         <v>54785</v>
       </c>
-      <c r="H156" s="2">
-        <v>321923</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B157" s="2">
         <v>565000166</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E157" s="2">
         <v>54</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2">
         <v>54141</v>
       </c>
-      <c r="H157" s="2">
-        <v>321754</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B158" s="2">
         <v>565000166</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E158" s="2">
         <v>55</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2">
         <v>54146</v>
       </c>
-      <c r="H158" s="2">
-        <v>321809</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B159" s="2">
         <v>565000166</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E159" s="2">
         <v>56</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2">
         <v>50718</v>
       </c>
-      <c r="H159" s="2">
-        <v>320806</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B160" s="2">
         <v>565000166</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E160" s="2">
         <v>57</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2">
         <v>54160</v>
       </c>
-      <c r="H160" s="2">
-        <v>322204</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B161" s="2">
         <v>565000166</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E161" s="2">
         <v>58</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2">
         <v>54808</v>
       </c>
-      <c r="H161" s="2">
-        <v>321891</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B162" s="2">
         <v>565000166</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E162" s="2">
         <v>59</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2">
         <v>53418</v>
       </c>
-      <c r="H162" s="2">
-        <v>321517</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B163" s="2">
         <v>565000166</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E163" s="2">
         <v>60</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2">
         <v>54819</v>
       </c>
-      <c r="H163" s="2">
-        <v>321906</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B164" s="2">
         <v>565000166</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E164" s="2">
         <v>61</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2">
         <v>54167</v>
       </c>
-      <c r="H164" s="2">
-        <v>322037</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B165" s="2">
         <v>565000166</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E165" s="2">
         <v>62</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2">
         <v>54820</v>
       </c>
-      <c r="H165" s="2">
-        <v>321930</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B166" s="2">
         <v>565000166</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E166" s="2">
         <v>63</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2">
         <v>51765</v>
       </c>
-      <c r="H166" s="2">
-        <v>321134</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B167" s="2">
         <v>565000166</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E167" s="2">
         <v>64</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2">
         <v>54823</v>
       </c>
-      <c r="H167" s="2">
-        <v>321950</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B168" s="2">
         <v>565000166</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E168" s="2">
         <v>65</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2">
         <v>53423</v>
       </c>
-      <c r="H168" s="2">
-        <v>321605</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B169" s="2">
         <v>565000166</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E169" s="2">
         <v>66</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2">
         <v>48591</v>
       </c>
-      <c r="H169" s="2">
-        <v>320725</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B170" s="2">
         <v>565000166</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E170" s="2">
         <v>67</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2">
         <v>54978</v>
       </c>
-      <c r="H170" s="2">
-        <v>321866</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B171" s="2">
         <v>565000166</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E171" s="2">
         <v>68</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2">
         <v>54375</v>
       </c>
-      <c r="H171" s="2">
-        <v>321853</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B172" s="2">
         <v>565000166</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E172" s="2">
         <v>69</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2">
         <v>54849</v>
       </c>
-      <c r="H172" s="2">
-        <v>321952</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B173" s="2">
         <v>565000166</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E173" s="2">
         <v>70</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2">
         <v>54854</v>
       </c>
-      <c r="H173" s="2">
-        <v>321968</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B174" s="2">
         <v>565000166</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E174" s="2">
         <v>71</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2">
         <v>53430</v>
       </c>
-      <c r="H174" s="2">
-        <v>321544</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B175" s="2">
         <v>565000166</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E175" s="2">
         <v>72</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2">
         <v>54206</v>
       </c>
-      <c r="H175" s="2">
-        <v>321708</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B176" s="2">
         <v>565000166</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E176" s="2">
         <v>73</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2">
         <v>52618</v>
       </c>
-      <c r="H176" s="2">
-        <v>321323</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B177" s="2">
         <v>565000166</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E177" s="2">
         <v>74</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2">
         <v>54871</v>
       </c>
-      <c r="H177" s="2">
-        <v>321928</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B178" s="2">
         <v>565000166</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E178" s="2">
         <v>75</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2">
         <v>52627</v>
       </c>
-      <c r="H178" s="2">
-        <v>321364</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B179" s="2">
         <v>565000166</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E179" s="2">
         <v>76</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2">
         <v>53436</v>
       </c>
-      <c r="H179" s="2">
-        <v>321552</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B180" s="2">
         <v>565000166</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E180" s="2">
         <v>77</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2">
         <v>53439</v>
       </c>
-      <c r="H180" s="2">
-        <v>321561</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B181" s="2">
         <v>565000166</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E181" s="2">
         <v>78</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2">
         <v>53444</v>
       </c>
-      <c r="H181" s="2">
-        <v>321545</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B182" s="2">
         <v>565000166</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E182" s="2">
         <v>79</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2">
         <v>54254</v>
       </c>
-      <c r="H182" s="2">
-        <v>321747</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B183" s="2">
         <v>565000166</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E183" s="2">
         <v>80</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2">
         <v>54911</v>
       </c>
-      <c r="H183" s="2">
-        <v>321920</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B184" s="2">
         <v>565000166</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E184" s="2">
         <v>81</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2">
         <v>54913</v>
       </c>
-      <c r="H184" s="2">
-        <v>321912</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B185" s="2">
         <v>565000166</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E185" s="2">
         <v>82</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2">
         <v>54912</v>
       </c>
-      <c r="H185" s="2">
-        <v>321887</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
+    </row>
+    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
-      <c r="H186" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
